--- a/www/plys/Tern/USDAsoils.xlsx
+++ b/www/plys/Tern/USDAsoils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtshu\Desktop\RockR! v1.2\plys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtshu\Desktop\RockR-master\www\plys\Tern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9857649A-A667-4934-9189-9AD406177537}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5206BFB7-7F7A-4219-A4B5-173262B24143}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5736" activeTab="1" xr2:uid="{F1DDF450-51F8-47CC-8C6B-921E0C73DF77}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9072" activeTab="2" xr2:uid="{F1DDF450-51F8-47CC-8C6B-921E0C73DF77}"/>
   </bookViews>
   <sheets>
     <sheet name="plys" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="29">
   <si>
     <t>A</t>
   </si>
@@ -96,6 +96,24 @@
   </si>
   <si>
     <t>USDA Textural Sediment Classification</t>
+  </si>
+  <si>
+    <t>A_arrow</t>
+  </si>
+  <si>
+    <t>B_arrow</t>
+  </si>
+  <si>
+    <t>C_arrow</t>
+  </si>
+  <si>
+    <t>Clay (w/w)</t>
+  </si>
+  <si>
+    <t>Sand (w/w)</t>
+  </si>
+  <si>
+    <t>Silt (w/w)</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1395,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E68">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E68">
     <sortCondition ref="D2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1388,7 +1406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57F90F5-4511-4435-B6DE-E7FEBE4C92A0}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -1742,15 +1760,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E532FD-530C-44D1-B4F3-37AF0671EC71}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="6" width="14.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1761,10 +1782,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1775,6 +1805,15 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
     </row>
